--- a/data/clean/input_data_with_estimates.xlsx
+++ b/data/clean/input_data_with_estimates.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,59 +731,35 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>S1+S2</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="K4" t="n">
         <v>2025</v>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>4295.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>63655.6</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>67960.7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>142717.47</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>https://corporate.ccc.eu/media/ESG-GO25-prezentacja-SHORT-WWW-FINAL-.pdf</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://corporate.ccc.eu/raporty-csr</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -804,29 +780,35 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+          <t>S1+S2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="K5" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>4295.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>63665.6</v>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>67960.7</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -855,42 +837,46 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>S1+S2</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="K6" t="n">
         <v>2030</v>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>4295.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>63665.6</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>67950.7</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>https://corporate.ccc.eu/media/ESG-GO25-prezentacja-SHORT-WWW-FINAL-.pdf</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://corporate.ccc.eu/raporty-csr</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>dane za 2021</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -898,11 +884,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>KGHM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -923,43 +909,65 @@
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K7" t="n">
         <v>2030</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>4295.1</v>
+        <v>1430234</v>
       </c>
       <c r="N7" t="n">
-        <v>63655.6</v>
+        <v>1614949</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>67950.7</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+        <v>3045183</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8221994.1</v>
+      </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>https://kghm.com/pl/polityka-klimatyczna</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://kghm.com/pl/inwestorzy/centrum-wynikow/raporty-zintegrowane</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>scope 3 zostanie udostępniony w 2024 roku i jest określany jako: 
+"emisje pośrednie w łańcuchu dostaw sprzętu, maszyn, części, materiałów eksploatacyjnych itp., 
+a także wynikające z realizacji usług czy podróży służbowych."</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>KGHM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -969,26 +977,32 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+          <t>S1+S2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="J8" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K8" t="n">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1430234</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1614949</v>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>0</v>
@@ -996,21 +1010,9 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>https://corporate.ccc.eu/media/ESG-GO25-prezentacja-SHORT-WWW-FINAL-.pdf</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>https://corporate.ccc.eu/raporty-csr</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>dane za 2021</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -1018,11 +1020,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KGHM</t>
+          <t>mBank</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1043,7 +1045,7 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="J9" t="n">
         <v>2020</v>
@@ -1053,39 +1055,33 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>1430234</v>
+        <v>1929.77</v>
       </c>
       <c r="N9" t="n">
-        <v>1614949</v>
+        <v>7441.65</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>3045183</v>
+        <v>9371.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>108</v>
       </c>
       <c r="R9" t="n">
-        <v>8221994.1</v>
+        <v>1012113.36</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>https://kghm.com/pl/polityka-klimatyczna</t>
+          <t>https://pl.media.mbank.pl/185727-mbank-pracuje-nad-dekarbonizacja-portfela-kredytowego-przystepuje-do-organizacji-pcaf</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>https://kghm.com/pl/inwestorzy/centrum-wynikow/raporty-zintegrowane</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>scope 3 zostanie udostępniony w 2024 roku i jest określany jako: 
-"emisje pośrednie w łańcuchu dostaw sprzętu, maszyn, części, materiałów eksploatacyjnych itp., 
-a także wynikające z realizacji usług czy podróży służbowych."</t>
-        </is>
-      </c>
+          <t>https://www.mbank.pl/raport-roczny/2020/wp-content/uploads/2021/07/mBank-Raport-zintegrowany-2020.pdf</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
           <t>Uwzględniane (CO2e)</t>
@@ -1097,11 +1093,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KGHM</t>
+          <t>mBank</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1111,7 +1107,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1120,7 +1116,9 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" t="n">
         <v>0.95</v>
       </c>
@@ -1132,15 +1130,13 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>1430234</v>
+        <v>1929.77</v>
       </c>
       <c r="N10" t="n">
-        <v>1614949</v>
+        <v>7441.65</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1154,11 +1150,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mBank</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1179,46 +1175,48 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="J11" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="K11" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>1929.77</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7441.65</v>
-      </c>
+        <v>505000</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>9371.42</v>
+        <v>505000</v>
       </c>
       <c r="Q11" t="n">
-        <v>108</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1012113.36</v>
+        <v>1060500</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>https://pl.media.mbank.pl/185727-mbank-pracuje-nad-dekarbonizacja-portfela-kredytowego-przystepuje-do-organizacji-pcaf</t>
+          <t xml:space="preserve">https://www.orange.pl/razemdlaplanety/redukujemy-emisje-co2 ; https://biuroprasowe.orange.pl/informacje-prasowe/orangegoesgreen-orange-polska-oglasza-swoje-cele-klimatyczne-redukcja-emisji-co2-i-wiecej-energii-ze-zrodel-odnawialnych/ </t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>https://www.mbank.pl/raport-roczny/2020/wp-content/uploads/2021/07/mBank-Raport-zintegrowany-2020.pdf</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+          <t>http://www.raportcsropl.pl/kluczowe-dane-czyste-srodowisko.html#raport-section</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>bez rozbicia na Scope1 i 2</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Uwzględniane (CO2e)</t>
+          <t>Brak danych</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1227,11 +1225,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mBank</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1257,22 +1255,18 @@
         <v>0.95</v>
       </c>
       <c r="J12" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="K12" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1929.77</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7441.65</v>
-      </c>
+        <v>505000</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1286,11 +1280,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Pekao</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1311,48 +1305,50 @@
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="J13" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="K13" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>505000</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>8104.3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>64153.1</v>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>505000</v>
+        <v>72257.39999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>108</v>
       </c>
       <c r="R13" t="n">
-        <v>1060500</v>
+        <v>7803799.2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.orange.pl/razemdlaplanety/redukujemy-emisje-co2 ; https://biuroprasowe.orange.pl/informacje-prasowe/orangegoesgreen-orange-polska-oglasza-swoje-cele-klimatyczne-redukcja-emisji-co2-i-wiecej-energii-ze-zrodel-odnawialnych/ </t>
+          <t>https://media.pekao.com.pl/pr/676849/strategia-esg-banku-pekao-odpowiedzialny-bank-wspierajacy-zrownowazony-rozwoj</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>http://www.raportcsropl.pl/kluczowe-dane-czyste-srodowisko.html#raport-section</t>
+          <t>https://www.pekao.com.pl/dam/jcr:78de73cd-fcaf-4b94-81d7-7d08079e07ba/O%C5%9Bwiadczenie%20o%20danych%20niefinansowych%20Grupy%20Pekao%202021.pdf</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>bez rozbicia na Scope1 i 2</t>
+          <t>scope 3 nieraportowany</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Brak danych</t>
+          <t>Uwzględniane ("GC")</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
@@ -1361,11 +1357,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>PGE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1375,7 +1371,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1384,45 +1380,63 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>0.95</v>
       </c>
       <c r="J14" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="K14" t="n">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>505000</v>
+        <v>72504413</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+        <v>72504413</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>108756619.5</v>
+      </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>https://www.gkpge.pl/grupa-pge/o-grupie/poznaj-strategie</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://raportzintegrowany2020.gkpge.pl/wp-content/uploads/2021/05/SprawozdanienatematinformacjiniefinansowychPGE.pdf#page=64</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>scope 1 i 2 raportowane łącznie</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>12985648</v>
+      </c>
+      <c r="X14" t="n">
+        <v>59518765000</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pekao</t>
+          <t>PKN Orlen</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1446,60 +1460,66 @@
         <v>0.95</v>
       </c>
       <c r="J15" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K15" t="n">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>8104.3</v>
+        <v>17715216</v>
       </c>
       <c r="N15" t="n">
-        <v>64153.1</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
+        <v>1259736</v>
+      </c>
+      <c r="O15" t="n">
+        <v>81123571</v>
+      </c>
       <c r="P15" t="n">
-        <v>72257.39999999999</v>
+        <v>18974952</v>
       </c>
       <c r="Q15" t="n">
-        <v>108</v>
+        <v>7.5</v>
       </c>
       <c r="R15" t="n">
-        <v>7803799.2</v>
+        <v>142312140</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>https://media.pekao.com.pl/pr/676849/strategia-esg-banku-pekao-odpowiedzialny-bank-wspierajacy-zrownowazony-rozwoj</t>
+          <t>https://www.orlen.pl/content/dam/internet/orlen/pl/pl/o-firmie/media/komunikaty-prasowe/dokumenty/Niskoemisyjny-ORLEN_09_09_2020.pdf.coredownload.pdf</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>https://www.pekao.com.pl/dam/jcr:78de73cd-fcaf-4b94-81d7-7d08079e07ba/O%C5%9Bwiadczenie%20o%20danych%20niefinansowych%20Grupy%20Pekao%202021.pdf</t>
+          <t xml:space="preserve">https://raportzintegrowany2020.orlen.pl/srodowisko-i-klimat/emisje-do-powietrza/ oraz https://www.orlen.pl/content/dam/internet/orlen/pl/pl/o-firmie/zrownowazony-rozwoj/emisje-grupy-orlen/Emisje%20Grupy%20ORLEN%20za%20lata%202019-2021%20-%20PL.pdf.coredownload.pdf </t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
+          <t>scope 1 i 2 raportowane łącznie</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Uwzględniane ("GC")</t>
+          <t>Uwzględniane (CO2e)</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PGE</t>
+          <t>PKN Orlen</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1513,58 +1533,40 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
         <v>2020</v>
       </c>
       <c r="K16" t="n">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>72504413</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>72504413</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>108756619.5</v>
-      </c>
+        <v>17715216</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1259736</v>
+      </c>
+      <c r="O16" t="n">
+        <v>81123571</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>https://www.gkpge.pl/grupa-pge/o-grupie/poznaj-strategie</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>https://raportzintegrowany2020.gkpge.pl/wp-content/uploads/2021/05/SprawozdanienatematinformacjiniefinansowychPGE.pdf#page=64</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>scope 1 i 2 raportowane łącznie</t>
-        </is>
-      </c>
-      <c r="W16" t="n">
-        <v>12985648</v>
-      </c>
-      <c r="X16" t="n">
-        <v>59518765000</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1578,30 +1580,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Absolute</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Intensity</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Power Generation</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
+        <v>0.49</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="J17" t="n">
         <v>2020</v>
       </c>
       <c r="K17" t="n">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1613,51 +1617,25 @@
       <c r="O17" t="n">
         <v>81123571</v>
       </c>
-      <c r="P17" t="n">
-        <v>18974952</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>142312140</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>https://www.orlen.pl/content/dam/internet/orlen/pl/pl/o-firmie/media/komunikaty-prasowe/dokumenty/Niskoemisyjny-ORLEN_09_09_2020.pdf.coredownload.pdf</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://raportzintegrowany2020.orlen.pl/srodowisko-i-klimat/emisje-do-powietrza/ oraz https://www.orlen.pl/content/dam/internet/orlen/pl/pl/o-firmie/zrownowazony-rozwoj/emisje-grupy-orlen/Emisje%20Grupy%20ORLEN%20za%20lata%202019-2021%20-%20PL.pdf.coredownload.pdf </t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>scope 1 i 2 raportowane łącznie</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PKN Orlen</t>
+          <t>PKO BP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1671,109 +1649,155 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K18" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>17715216</v>
+        <v>11816</v>
       </c>
       <c r="N18" t="n">
-        <v>1259736</v>
-      </c>
-      <c r="O18" t="n">
-        <v>81123571</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+        <v>88906</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>100722</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>108</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10877976</v>
+      </c>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>https://media.pkobp.pl/148960-pko-bank-polski-uwzglednil-wskazniki-esg-w-celach-niefinansowych</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://www.raportroczny2020.pkobp.pl/esg/srodowisko/</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>scope 3 usunięty</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PKN Orlen</t>
+          <t>PZU</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Intensity</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Power Generation</t>
-        </is>
-      </c>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="J19" t="n">
         <v>2020</v>
       </c>
       <c r="K19" t="n">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>17715216</v>
+        <v>25793</v>
       </c>
       <c r="N19" t="n">
-        <v>1259736</v>
-      </c>
-      <c r="O19" t="n">
-        <v>81123571</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+        <v>79790</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>105583</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>108</v>
+      </c>
+      <c r="R19" t="n">
+        <v>11402964</v>
+      </c>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>https://www.pzu.pl/relacje-inwestorskie/o-grupie/strategia</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://raportroczny2020.pzu.pl/sites/pzuar19/files/download-center/raport_niefinansowy_grupy_pzu_i_pzu_sa_2020_1.pdf</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Scope 3 - więcej niż podróże, ale wciąż nie są to dane dot. portfela</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PKO BP</t>
+          <t>PZU</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1783,7 +1807,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1792,69 +1816,45 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
       <c r="I20" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="J20" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K20" t="n">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>11816</v>
+        <v>25793</v>
       </c>
       <c r="N20" t="n">
-        <v>88906</v>
+        <v>79790</v>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>100722</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>108</v>
-      </c>
-      <c r="R20" t="n">
-        <v>10877976</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>https://media.pkobp.pl/148960-pko-bank-polski-uwzglednil-wskazniki-esg-w-celach-niefinansowych</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>https://www.raportroczny2020.pkobp.pl/esg/srodowisko/</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>scope 3 usunięty</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PZU</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1873,7 +1873,9 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
       <c r="I21" t="n">
         <v>0.95</v>
       </c>
@@ -1881,61 +1883,57 @@
         <v>2020</v>
       </c>
       <c r="K21" t="n">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>25793</v>
+        <v>2031.82</v>
       </c>
       <c r="N21" t="n">
-        <v>79790</v>
+        <v>7676.4</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>105583</v>
+        <v>9708.219999999999</v>
       </c>
       <c r="Q21" t="n">
         <v>108</v>
       </c>
       <c r="R21" t="n">
-        <v>11402964</v>
+        <v>1048487.76</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>https://www.pzu.pl/relacje-inwestorskie/o-grupie/strategia</t>
+          <t>https://esg.santander.pl/2020/raport-2020/klimat/nasze-podejscie/</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>https://raportroczny2020.pzu.pl/sites/pzuar19/files/download-center/raport_niefinansowy_grupy_pzu_i_pzu_sa_2020_1.pdf</t>
+          <t>https://esg.santander.pl/2020/raport-2020/klimat/wplyw-na-klimat/nasz-slad-srodowiskowy/</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Scope 3 - więcej niż podróże, ale wciąż nie są to dane dot. portfela</t>
+          <t>Scope 3 obejmujący głównie podróże, plus powinien być w scope 2</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Uwzględniane (CO2e)</t>
+          <t>Brak danych</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PZU</t>
+          <t>Ciech</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1945,7 +1943,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1954,47 +1952,65 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="J22" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K22" t="n">
-        <v>2050</v>
+        <v>2026</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>25793</v>
+        <v>2852457</v>
       </c>
       <c r="N22" t="n">
-        <v>79790</v>
+        <v>597284</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+        <v>3449741</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6554507.9</v>
+      </c>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>https://ciechgroup.com/grupa-ciech/aktualnosci/news/grupa-ciech-przystapi-do-inicjatywy-science-based-targets-wspierajacej-firmy-w-wyznaczaniu-celow/</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>https://esgciech.com/wp-content/uploads/2021/05/Raport-niefinansowy-CIECH.pdf</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Brak danych</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Ciech</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2004,7 +2020,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2013,67 +2029,43 @@
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>0.95</v>
       </c>
       <c r="J23" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>2031.82</v>
+        <v>2852457</v>
       </c>
       <c r="N23" t="n">
-        <v>7676.4</v>
+        <v>597284</v>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>9708.219999999999</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>108</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1048487.76</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>https://esg.santander.pl/2020/raport-2020/klimat/nasze-podejscie/</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>https://esg.santander.pl/2020/raport-2020/klimat/wplyw-na-klimat/nasz-slad-srodowiskowy/</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Scope 3 obejmujący głównie podróże, plus powinien być w scope 2</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Brak danych</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ciech</t>
+          <t>Enea</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2083,56 +2075,54 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="J24" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K24" t="n">
-        <v>2026</v>
+        <v>2050</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>2852457</v>
+        <v>18671299</v>
       </c>
       <c r="N24" t="n">
-        <v>597284</v>
+        <v>0.01</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>3449741</v>
+        <v>18671299.01</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>6554507.9</v>
+        <v>28006948.52</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>https://ciechgroup.com/grupa-ciech/aktualnosci/news/grupa-ciech-przystapi-do-inicjatywy-science-based-targets-wspierajacej-firmy-w-wyznaczaniu-celow/</t>
+          <t>https://media.enea.pl/pr/714968/neutralnosc-klimatyczna-do-2050-r-enea-zaktualizowala-strategie-rozwoju-grupy</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>https://esgciech.com/wp-content/uploads/2021/05/Raport-niefinansowy-CIECH.pdf</t>
+          <t>https://raportesg2020.csr.enea.pl/srodowisko/ograniczanie-emisji-co2/</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
+          <t>emisje raportowane łącznie</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -2146,11 +2136,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ciech</t>
+          <t>GPW</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2171,43 +2161,67 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="K25" t="n">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>2852457</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="N25" t="n">
-        <v>597284</v>
+        <v>3382.76</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+        <v>3480.47</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7308.987</v>
+      </c>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>https://www.gpw.pl/pub/GPW/ESG/Strategia_ESG_Grupy_Kapitalowej_GPW.pdf</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://www.gpw.pl/pub/GPW/files/raporty_roczne/GPW_Raport_21.pdf</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Enea</t>
+          <t>GPW</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2217,72 +2231,52 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>0.95</v>
       </c>
       <c r="J26" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K26" t="n">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>18671299</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01</v>
+        <v>3382.76</v>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>18671299.01</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>28006948.52</v>
-      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>https://media.enea.pl/pr/714968/neutralnosc-klimatyczna-do-2050-r-enea-zaktualizowala-strategie-rozwoju-grupy</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>https://raportesg2020.csr.enea.pl/srodowisko/ograniczanie-emisji-co2/</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>emisje raportowane łącznie</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Brak danych</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GPW</t>
+          <t>Grupa Azoty</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2292,78 +2286,68 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="J27" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="K27" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>97.70999999999999</v>
+        <v>7326000</v>
       </c>
       <c r="N27" t="n">
-        <v>3382.76</v>
+        <v>2036000</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>3480.47</v>
+        <v>9362000</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>7308.987</v>
+        <v>17787800</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>https://www.gpw.pl/pub/GPW/ESG/Strategia_ESG_Grupy_Kapitalowej_GPW.pdf</t>
+          <t>https://grupaazoty.com/aktualnosci/grupa-azoty-ze-strategia-na-lata-2021-2030-i-kluczowym-projektem-zielone-azoty</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>https://www.gpw.pl/pub/GPW/files/raporty_roczne/GPW_Raport_21.pdf</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>scope 3 nieraportowany</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+          <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>306381</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6916601</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GPW</t>
+          <t>Grupa Azoty</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2373,42 +2357,50 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S1+S2</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="J28" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="K28" t="n">
         <v>2030</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>97.70999999999999</v>
+        <v>7326000</v>
       </c>
       <c r="N28" t="n">
-        <v>3382.76</v>
+        <v>2036000</v>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>3480.47</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>https://grupaazoty.com/aktualnosci/grupa-azoty-ze-strategia-na-lata-2021-2030-i-kluczowym-projektem-zielone-azoty</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2416,11 +2408,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Grupa Azoty</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2430,68 +2422,74 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.34</v>
+        <v>0.95</v>
       </c>
       <c r="J29" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K29" t="n">
         <v>2030</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>7326000</v>
+        <v>5271.27</v>
       </c>
       <c r="N29" t="n">
-        <v>2036000</v>
+        <v>1506687</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>9362000</v>
+        <v>1511958.27</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>108</v>
       </c>
       <c r="R29" t="n">
-        <v>17787800</v>
+        <v>163291493.2</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>https://grupaazoty.com/aktualnosci/grupa-azoty-ze-strategia-na-lata-2021-2030-i-kluczowym-projektem-zielone-azoty</t>
+          <t>https://www.ing.pl/_fileserver/item/1128229</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>306381</v>
-      </c>
-      <c r="X29" t="n">
-        <v>6916601</v>
-      </c>
+          <t>https://www.ing.pl/_fileserver/item/t1kv0qw</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Scope 3 obejmuje tylko podróże służbowe, nie uwzględniałem</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Grupa Azoty</t>
+          <t>Tauron</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2501,10 +2499,12 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>S1+S2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
@@ -2513,50 +2513,58 @@
         <v>0.51</v>
       </c>
       <c r="J30" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K30" t="n">
         <v>2030</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>7326000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2036000</v>
-      </c>
+        <v>18441041.57</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>18441041.57</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>27661562.36</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>https://grupaazoty.com/aktualnosci/grupa-azoty-ze-strategia-na-lata-2021-2030-i-kluczowym-projektem-zielone-azoty</t>
+          <t>https://raport.tauron.pl/zrownowazony-rozwoj/srodowisko-naturalne-i-klimat/polityka-klimatyczna-grupy-tauron/</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
+          <t>https://raport2019.tauron.pl/wp-content/uploads/2020/04/Podpisane_Sprawozdanie-na-temat-informacji-niefinansowych-GT-z-2019-rok_.pdf</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+          <t>emisje raportowane łącznie</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>3811319574</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14629722000</v>
+      </c>
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>Wirtualna Polska</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2577,45 +2585,45 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="K31" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>5271.27</v>
+        <v>405.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1506687</v>
+        <v>443.9</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>1511958.27</v>
+        <v>849.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>108</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>163291493.2</v>
+        <v>1783.74</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>https://www.ing.pl/_fileserver/item/1128229</t>
+          <t>https://holding.wpcdn.pl/download/ESG%20Strategy_Wirtualna%20Polska%20Holding_2022.pdf</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>https://www.ing.pl/_fileserver/item/t1kv0qw</t>
+          <t>https://holding.wpcdn.pl/download/WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf?title=WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf&amp;button=Pobierz</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Scope 3 obejmuje tylko podróże służbowe, nie uwzględniałem</t>
+          <t>scope 3 nieraportowany</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2629,11 +2637,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tauron</t>
+          <t>Wirtualna Polska</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2654,61 +2662,41 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.51</v>
+        <v>0.95</v>
       </c>
       <c r="J32" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="K32" t="n">
         <v>2030</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>18441041.57</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>405.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>443.9</v>
+      </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
-        <v>18441041.57</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>27661562.36</v>
-      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>https://raport.tauron.pl/zrownowazony-rozwoj/srodowisko-naturalne-i-klimat/polityka-klimatyczna-grupy-tauron/</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>https://raport2019.tauron.pl/wp-content/uploads/2020/04/Podpisane_Sprawozdanie-na-temat-informacji-niefinansowych-GT-z-2019-rok_.pdf</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>emisje raportowane łącznie</t>
-        </is>
-      </c>
-      <c r="W32" t="n">
-        <v>3811319574</v>
-      </c>
-      <c r="X32" t="n">
-        <v>14629722000</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wirtualna Polska</t>
+          <t>BNP Paribas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2718,7 +2706,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2727,47 +2715,49 @@
       <c r="G33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I33" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="J33" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="K33" t="n">
         <v>2025</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>405.5</v>
+        <v>6094</v>
       </c>
       <c r="N33" t="n">
-        <v>443.9</v>
+        <v>12890</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>849.4</v>
+        <v>18984</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1</v>
+        <v>108</v>
       </c>
       <c r="R33" t="n">
-        <v>1783.74</v>
+        <v>2050272</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>https://holding.wpcdn.pl/download/ESG%20Strategy_Wirtualna%20Polska%20Holding_2022.pdf</t>
+          <t>https://www.bnpparibas.pl/relacje-inwestorskie/o-banku/strategia-banku</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>https://holding.wpcdn.pl/download/WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf?title=WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf&amp;button=Pobierz</t>
+          <t>https://raportroczny.bnpparibas.pl/2020/</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
+          <t>Scope 3 obejmuje podróże służbowe, tylko, do usunięcia imo</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2776,16 +2766,20 @@
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Wirtualna Polska</t>
+          <t>Bank Ochrony Środowiska</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2795,7 +2789,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2804,45 +2798,67 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
       <c r="I34" t="n">
         <v>0.95</v>
       </c>
       <c r="J34" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K34" t="n">
         <v>2030</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>405.5</v>
+        <v>14</v>
       </c>
       <c r="N34" t="n">
-        <v>443.9</v>
+        <v>3040.78</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+        <v>3054.78</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>108</v>
+      </c>
+      <c r="R34" t="n">
+        <v>329916.24</v>
+      </c>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>https://www.bosbank.pl/__data/assets/pdf_file/0013/40333/Polityka-klimatyczna.pdf</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>https://www.bosbank.pl/__data/assets/pdf_file/0017/40337/RAPORT-ESG-BOS.pdf</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Scope 3 obejmuje głównie podróże służbowe</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BNP Paribas</t>
+          <t>JSW</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2852,7 +2868,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2861,49 +2877,47 @@
       <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K35" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>6094</v>
+        <v>7170000</v>
       </c>
       <c r="N35" t="n">
-        <v>12890</v>
+        <v>1050000</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>18984</v>
+        <v>8220000</v>
       </c>
       <c r="Q35" t="n">
-        <v>108</v>
+        <v>2.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2050272</v>
+        <v>22194000</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://www.bnpparibas.pl/relacje-inwestorskie/o-banku/strategia-banku</t>
+          <t>https://www.jsw.pl/relacje-inwestorskie/strategia</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://raportroczny.bnpparibas.pl/2020/</t>
+          <t>https://www.jsw.pl/raportroczny-2021/zrownowazony-rozwoj-w-jsw/w-trosce-o-klimat</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Scope 3 obejmuje podróże służbowe, tylko, do usunięcia imo</t>
+          <t>Scope 3 nieraportowany</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2912,30 +2926,30 @@
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bank Ochrony Środowiska</t>
+          <t>Grupa Kęty</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Absolute</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Intensity</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2944,67 +2958,55 @@
       <c r="G36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="J36" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="K36" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>14</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3040.78</v>
-      </c>
+        <v>21123</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>3054.78</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>108</v>
-      </c>
-      <c r="R36" t="n">
-        <v>329916.24</v>
-      </c>
+        <v>21123</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://www.bosbank.pl/__data/assets/pdf_file/0013/40333/Polityka-klimatyczna.pdf</t>
+          <t>https://grupakety.com/zrownowazony-rozwoj/srodowisko/polityka-srodowiskowa/</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>https://www.bosbank.pl/__data/assets/pdf_file/0017/40337/RAPORT-ESG-BOS.pdf</t>
+          <t>https://grupakety.com/wp-content/uploads/2021/11/raport2016pl.pdf</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Scope 3 obejmuje głównie podróże służbowe</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+          <t>Target: obniżenie o 15% ghg przypadających na jednostkę produktu</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JSW</t>
+          <t>Eurocash</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3025,40 +3027,40 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="J37" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="K37" t="n">
         <v>2030</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>7170000</v>
+        <v>37825.8</v>
       </c>
       <c r="N37" t="n">
-        <v>1050000</v>
+        <v>106461.65</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>8220000</v>
+        <v>144287.45</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="R37" t="n">
-        <v>22194000</v>
+        <v>1442874.5</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://www.jsw.pl/relacje-inwestorskie/strategia</t>
+          <t>https://grupaeurocash.pl/assets/media/strategia-2023-2025-pl.pdf</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>https://www.jsw.pl/raportroczny-2021/zrownowazony-rozwoj-w-jsw/w-trosce-o-klimat</t>
+          <t>https://grupaeurocash.pl/assets/media/eurocash-raport-so1-2021-pl.pdf</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3066,33 +3068,25 @@
           <t>Scope 3 nieraportowany</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Grupa Kęty</t>
+          <t>CitiBank Handlowy</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Intensity</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>S1+S2</t>
@@ -3106,53 +3100,63 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="K38" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>21123</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>1937</v>
+      </c>
+      <c r="N38" t="n">
+        <v>16337</v>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>21123</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+        <v>18274</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>108</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1973592</v>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://grupakety.com/zrownowazony-rozwoj/srodowisko/polityka-srodowiskowa/</t>
+          <t>https://www.citibank.pl/poland/homepage/polish/press1/files/220217-1_ip.pdf</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>https://grupakety.com/wp-content/uploads/2021/11/raport2016pl.pdf</t>
+          <t>https://www.citibank.pl/poland/homepage/raport_roczny_2019/files/sprawozdanie_na_temat_informacji_niefinansowych_2019_pl.pdf</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Target: obniżenie o 15% ghg przypadających na jednostkę produktu</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Brak celow dla Scope 3</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Eurocash</t>
+          <t>Millenium Bank</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3173,47 +3177,35 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.42</v>
+        <v>0.95</v>
       </c>
       <c r="J39" t="n">
         <v>2020</v>
       </c>
       <c r="K39" t="n">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>37825.8</v>
+        <v>2246</v>
       </c>
       <c r="N39" t="n">
-        <v>106461.65</v>
+        <v>21434</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>144287.45</v>
+        <v>23680</v>
       </c>
       <c r="Q39" t="n">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="R39" t="n">
-        <v>1442874.5</v>
+        <v>2557440</v>
       </c>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>https://grupaeurocash.pl/assets/media/strategia-2023-2025-pl.pdf</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>https://grupaeurocash.pl/assets/media/eurocash-raport-so1-2021-pl.pdf</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Scope 3 nieraportowany</t>
-        </is>
-      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -3221,11 +3213,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CitiBank Handlowy</t>
+          <t>Millenium Bank</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3235,7 +3227,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3244,65 +3236,45 @@
       <c r="G40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
       <c r="I40" t="n">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="J40" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K40" t="n">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>1937</v>
+        <v>2246</v>
       </c>
       <c r="N40" t="n">
-        <v>16337</v>
+        <v>21434</v>
       </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>18274</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>108</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1973592</v>
-      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>https://www.citibank.pl/poland/homepage/polish/press1/files/220217-1_ip.pdf</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>https://www.citibank.pl/poland/homepage/raport_roczny_2019/files/sprawozdanie_na_temat_informacji_niefinansowych_2019_pl.pdf</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Brak celow dla Scope 3</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Millenium Bank</t>
+          <t>Grenevia/Famur</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3323,30 +3295,30 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="J41" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="K41" t="n">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>2246</v>
+        <v>1451998</v>
       </c>
       <c r="N41" t="n">
-        <v>21434</v>
+        <v>14236</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>23680</v>
+        <v>1466234</v>
       </c>
       <c r="Q41" t="n">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="R41" t="n">
-        <v>2557440</v>
+        <v>41054552</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -3355,124 +3327,6 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Millenium Bank</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>25</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Absolute</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>S1+S2+S3</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2050</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>2246</v>
-      </c>
-      <c r="N42" t="n">
-        <v>21434</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Grenevia/Famur</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>26</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Absolute</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>S1+S2</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2030</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1451998</v>
-      </c>
-      <c r="N43" t="n">
-        <v>14236</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>1466234</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>28</v>
-      </c>
-      <c r="R43" t="n">
-        <v>41054552</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3485,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3604,6 +3458,11 @@
           <t>company_cash_equivalents</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>company_free_float</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3666,6 +3525,7 @@
         <v>16869877000</v>
       </c>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3726,6 +3586,7 @@
         <v>66647400000</v>
       </c>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3786,6 +3647,7 @@
         <v>48027000000</v>
       </c>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3846,6 +3708,7 @@
         <v>199538885000</v>
       </c>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3906,6 +3769,7 @@
         <v>26157000000</v>
       </c>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3966,6 +3830,7 @@
         <v>250566605000</v>
       </c>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4026,6 +3891,7 @@
         <v>88966000000</v>
       </c>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4088,6 +3954,7 @@
         <v>106754000000</v>
       </c>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4148,6 +4015,7 @@
         <v>418086000000</v>
       </c>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4208,6 +4076,7 @@
         <v>402129000000</v>
       </c>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4268,6 +4137,7 @@
         <v>244876340000</v>
       </c>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4328,6 +4198,7 @@
         <v>7145820000</v>
       </c>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4388,6 +4259,7 @@
         <v>34627647000</v>
       </c>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4448,6 +4320,7 @@
         <v>1410688000</v>
       </c>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4508,6 +4381,7 @@
         <v>23644705000</v>
       </c>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4568,6 +4442,7 @@
         <v>201654200000</v>
       </c>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4628,6 +4503,7 @@
         <v>40075000000</v>
       </c>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4688,6 +4564,7 @@
         <v>1262947000</v>
       </c>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4748,6 +4625,7 @@
         <v>131777481000</v>
       </c>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4808,6 +4686,7 @@
         <v>20585740000</v>
       </c>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4868,6 +4747,7 @@
         <v>15961800000</v>
       </c>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4928,6 +4808,7 @@
         <v>3526815000</v>
       </c>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4988,6 +4869,7 @@
         <v>8487299000</v>
       </c>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5048,6 +4930,7 @@
         <v>61862771000</v>
       </c>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5106,6 +4989,7 @@
         <v>103913000000</v>
       </c>
       <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5164,6 +5048,7 @@
         <v>2599000000</v>
       </c>
       <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/clean/input_data_with_estimates.xlsx
+++ b/data/clean/input_data_with_estimates.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,10 +612,10 @@
         <v>11124.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>10.9</v>
       </c>
       <c r="R2" t="n">
-        <v>23361.912</v>
+        <v>206039.04</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
@@ -679,20 +679,20 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>4295.1</v>
+        <v>5237.1</v>
       </c>
       <c r="N3" t="n">
-        <v>63665.6</v>
+        <v>51725.4</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>67960.7</v>
+        <v>56962.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>10.9</v>
       </c>
       <c r="R3" t="n">
-        <v>142717.47</v>
+        <v>620891.25</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
@@ -801,17 +801,21 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>4295.1</v>
+        <v>5237.1</v>
       </c>
       <c r="N5" t="n">
-        <v>63665.6</v>
+        <v>51725.4</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>67960.7</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>56962.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>620891.25</v>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -902,10 +906,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
@@ -919,20 +923,20 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>1430234</v>
+        <v>2479173</v>
       </c>
       <c r="N7" t="n">
-        <v>1614949</v>
+        <v>2162120.05</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>3045183</v>
+        <v>4641293.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>11.5</v>
       </c>
       <c r="R7" t="n">
-        <v>8221994.1</v>
+        <v>53374870.08</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
@@ -998,10 +1002,10 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>1430234</v>
+        <v>2479173</v>
       </c>
       <c r="N8" t="n">
-        <v>1614949</v>
+        <v>2162120.05</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
@@ -1065,10 +1069,10 @@
         <v>9371.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>108</v>
+        <v>700</v>
       </c>
       <c r="R9" t="n">
-        <v>1012113.36</v>
+        <v>6559994</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
@@ -1325,10 +1329,10 @@
         <v>72257.39999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>108</v>
+        <v>700</v>
       </c>
       <c r="R13" t="n">
-        <v>7803799.2</v>
+        <v>50580180</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
@@ -1395,15 +1399,17 @@
         <v>72504413</v>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>24722424.4</v>
+      </c>
       <c r="P14" t="n">
         <v>72504413</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="R14" t="n">
-        <v>108756619.5</v>
+        <v>24722424.4</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
@@ -1425,9 +1431,11 @@
         <v>12985648</v>
       </c>
       <c r="X14" t="n">
-        <v>59518765000</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
+        <v>59518765</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>72504413</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1479,10 +1487,10 @@
         <v>18974952</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.5</v>
+        <v>8.09</v>
       </c>
       <c r="R15" t="n">
-        <v>142312140</v>
+        <v>81123571</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
@@ -1533,10 +1541,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
@@ -1585,7 +1593,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1594,7 +1602,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1631,11 +1639,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PKO BP</t>
+          <t>PKN Orlen</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,67 +1664,43 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.6</v>
+        <v>0.265</v>
       </c>
       <c r="J18" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K18" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>11816</v>
+        <v>17715216</v>
       </c>
       <c r="N18" t="n">
-        <v>88906</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>100722</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>108</v>
-      </c>
-      <c r="R18" t="n">
-        <v>10877976</v>
-      </c>
+        <v>1259736</v>
+      </c>
+      <c r="O18" t="n">
+        <v>81123571</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>https://media.pkobp.pl/148960-pko-bank-polski-uwzglednil-wskazniki-esg-w-celach-niefinansowych</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>https://www.raportroczny2020.pkobp.pl/esg/srodowisko/</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>scope 3 usunięty</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PZU</t>
+          <t>PKO BP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1737,45 +1721,45 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K19" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>25793</v>
+        <v>16399</v>
       </c>
       <c r="N19" t="n">
-        <v>79790</v>
+        <v>97112</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>105583</v>
+        <v>113511</v>
       </c>
       <c r="Q19" t="n">
-        <v>108</v>
+        <v>700</v>
       </c>
       <c r="R19" t="n">
-        <v>11402964</v>
+        <v>79457700</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>https://www.pzu.pl/relacje-inwestorskie/o-grupie/strategia</t>
+          <t>https://media.pkobp.pl/148960-pko-bank-polski-uwzglednil-wskazniki-esg-w-celach-niefinansowych</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>https://raportroczny2020.pzu.pl/sites/pzuar19/files/download-center/raport_niefinansowy_grupy_pzu_i_pzu_sa_2020_1.pdf</t>
+          <t>https://www.raportroczny2020.pkobp.pl/esg/srodowisko/</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Scope 3 - więcej niż podróże, ale wciąż nie są to dane dot. portfela</t>
+          <t>scope 3 usunięty</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -1807,7 +1791,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1816,9 +1800,7 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>0.95</v>
       </c>
@@ -1826,35 +1808,61 @@
         <v>2020</v>
       </c>
       <c r="K20" t="n">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>25793</v>
+        <v>25794</v>
       </c>
       <c r="N20" t="n">
-        <v>79790</v>
+        <v>106543</v>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>132337</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>700</v>
+      </c>
+      <c r="R20" t="n">
+        <v>92635900</v>
+      </c>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>https://www.pzu.pl/relacje-inwestorskie/o-grupie/strategia</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://raportroczny2020.pzu.pl/sites/pzuar19/files/download-center/raport_niefinansowy_grupy_pzu_i_pzu_sa_2020_1.pdf</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Scope 3 - więcej niż podróże, ale wciąż nie są to dane dot. portfela</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>PZU</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1887,53 +1895,31 @@
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>2031.82</v>
+        <v>25794</v>
       </c>
       <c r="N21" t="n">
-        <v>7676.4</v>
+        <v>106543</v>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>9708.219999999999</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>108</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1048487.76</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>https://esg.santander.pl/2020/raport-2020/klimat/nasze-podejscie/</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>https://esg.santander.pl/2020/raport-2020/klimat/wplyw-na-klimat/nasz-slad-srodowiskowy/</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Scope 3 obejmujący głównie podróże, plus powinien być w scope 2</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Brak danych</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ciech</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1943,7 +1929,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1952,47 +1938,49 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
       <c r="I22" t="n">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="J22" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K22" t="n">
-        <v>2026</v>
+        <v>2050</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>2852457</v>
+        <v>2031.82</v>
       </c>
       <c r="N22" t="n">
-        <v>597284</v>
+        <v>7676.4</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>3449741</v>
+        <v>9708.219999999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>700</v>
       </c>
       <c r="R22" t="n">
-        <v>6554507.9</v>
+        <v>6795754</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>https://ciechgroup.com/grupa-ciech/aktualnosci/news/grupa-ciech-przystapi-do-inicjatywy-science-based-targets-wspierajacej-firmy-w-wyznaczaniu-celow/</t>
+          <t>https://esg.santander.pl/2020/raport-2020/klimat/nasze-podejscie/</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>https://esgciech.com/wp-content/uploads/2021/05/Raport-niefinansowy-CIECH.pdf</t>
+          <t>https://esg.santander.pl/2020/raport-2020/klimat/wplyw-na-klimat/nasz-slad-srodowiskowy/</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
+          <t>Scope 3 obejmujący głównie podróże, plus powinien być w scope 2</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2031,41 +2019,63 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="J23" t="n">
         <v>2019</v>
       </c>
       <c r="K23" t="n">
-        <v>2040</v>
+        <v>2026</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>2852457</v>
+        <v>2920571</v>
       </c>
       <c r="N23" t="n">
-        <v>597284</v>
+        <v>533032</v>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>3453603</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R23" t="n">
+        <v>10913385.48</v>
+      </c>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>https://ciechgroup.com/grupa-ciech/aktualnosci/news/grupa-ciech-przystapi-do-inicjatywy-science-based-targets-wspierajacej-firmy-w-wyznaczaniu-celow/</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://esgciech.com/wp-content/uploads/2021/05/Raport-niefinansowy-CIECH.pdf</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Brak danych</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Enea</t>
+          <t>Ciech</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2075,72 +2085,52 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>0.95</v>
       </c>
       <c r="J24" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>18671299</v>
+        <v>2920571</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01</v>
+        <v>533032</v>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>18671299.01</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>28006948.52</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>https://media.enea.pl/pr/714968/neutralnosc-klimatyczna-do-2050-r-enea-zaktualizowala-strategie-rozwoju-grupy</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>https://raportesg2020.csr.enea.pl/srodowisko/ograniczanie-emisji-co2/</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>emisje raportowane łącznie</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Brak danych</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GPW</t>
+          <t>Enea</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2150,69 +2140,63 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="J25" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="K25" t="n">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>97.70999999999999</v>
+        <v>18671299</v>
       </c>
       <c r="N25" t="n">
-        <v>3382.76</v>
+        <v>0.01</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>3480.47</v>
+        <v>18671299.01</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="R25" t="n">
-        <v>7308.987</v>
+        <v>24272688.71</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>https://www.gpw.pl/pub/GPW/ESG/Strategia_ESG_Grupy_Kapitalowej_GPW.pdf</t>
+          <t>https://media.enea.pl/pr/714968/neutralnosc-klimatyczna-do-2050-r-enea-zaktualizowala-strategie-rozwoju-grupy</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>https://www.gpw.pl/pub/GPW/files/raporty_roczne/GPW_Raport_21.pdf</t>
+          <t>https://raportesg2020.csr.enea.pl/srodowisko/ograniczanie-emisji-co2/</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
+          <t>emisje raportowane łącznie</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Uwzględniane (CO2e)</t>
+          <t>Brak danych</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2242,13 +2226,13 @@
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="J26" t="n">
         <v>2022</v>
       </c>
       <c r="K26" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2258,25 +2242,51 @@
         <v>3382.76</v>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>3480.47</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7308.987</v>
+      </c>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>https://www.gpw.pl/pub/GPW/ESG/Strategia_ESG_Grupy_Kapitalowej_GPW.pdf</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://www.gpw.pl/pub/GPW/files/raporty_roczne/GPW_Raport_21.pdf</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Grupa Azoty</t>
+          <t>GPW</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2286,58 +2296,42 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.34</v>
+        <v>0.95</v>
       </c>
       <c r="J27" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="K27" t="n">
         <v>2030</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>7326000</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>2036000</v>
+        <v>3382.76</v>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>9362000</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R27" t="n">
-        <v>17787800</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>https://grupaazoty.com/aktualnosci/grupa-azoty-ze-strategia-na-lata-2021-2030-i-kluczowym-projektem-zielone-azoty</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>306381</v>
-      </c>
-      <c r="X27" t="n">
-        <v>6916601</v>
-      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2357,16 +2351,16 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="J28" t="n">
         <v>2020</v>
@@ -2376,15 +2370,21 @@
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>7326000</v>
+        <v>7396000</v>
       </c>
       <c r="N28" t="n">
         <v>2036000</v>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>9432000</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R28" t="n">
+        <v>29805120</v>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
@@ -2396,23 +2396,23 @@
           <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>scope 3 nieraportowany</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>306381</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6916601</v>
+      </c>
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>Grupa Azoty</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2422,74 +2422,62 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>S1+S2</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="J29" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K29" t="n">
         <v>2030</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>5271.27</v>
+        <v>7396000</v>
       </c>
       <c r="N29" t="n">
-        <v>1506687</v>
+        <v>2036000</v>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>1511958.27</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>108</v>
-      </c>
-      <c r="R29" t="n">
-        <v>163291493.2</v>
-      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>https://www.ing.pl/_fileserver/item/1128229</t>
+          <t>https://grupaazoty.com/aktualnosci/grupa-azoty-ze-strategia-na-lata-2021-2030-i-kluczowym-projektem-zielone-azoty</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>https://www.ing.pl/_fileserver/item/t1kv0qw</t>
+          <t>https://raport2020.grupaazoty.com/srodowisko/emisje-do-powietrza/</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Scope 3 obejmuje tylko podróże służbowe, nie uwzględniałem</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tauron</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2510,61 +2498,63 @@
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.51</v>
+        <v>0.95</v>
       </c>
       <c r="J30" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K30" t="n">
         <v>2030</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>18441041.57</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>5271.27</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6025.03</v>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>18441041.57</v>
+        <v>11296.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.5</v>
+        <v>700</v>
       </c>
       <c r="R30" t="n">
-        <v>27661562.36</v>
+        <v>7907410</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>https://raport.tauron.pl/zrownowazony-rozwoj/srodowisko-naturalne-i-klimat/polityka-klimatyczna-grupy-tauron/</t>
+          <t>https://www.ing.pl/_fileserver/item/1128229</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>https://raport2019.tauron.pl/wp-content/uploads/2020/04/Podpisane_Sprawozdanie-na-temat-informacji-niefinansowych-GT-z-2019-rok_.pdf</t>
+          <t>https://www.ing.pl/_fileserver/item/t1kv0qw</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>emisje raportowane łącznie</t>
-        </is>
-      </c>
-      <c r="W30" t="n">
-        <v>3811319574</v>
-      </c>
-      <c r="X30" t="n">
-        <v>14629722000</v>
-      </c>
+          <t>Scope 3 obejmuje tylko podróże służbowe, nie uwzględniałem</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Wirtualna Polska</t>
+          <t>Tauron</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2585,53 +2575,51 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="J31" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="K31" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>405.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>443.9</v>
-      </c>
+        <v>18441041.57</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>849.4</v>
+        <v>18441041.57</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="R31" t="n">
-        <v>1783.74</v>
+        <v>23973354.05</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>https://holding.wpcdn.pl/download/ESG%20Strategy_Wirtualna%20Polska%20Holding_2022.pdf</t>
+          <t>https://raport.tauron.pl/zrownowazony-rozwoj/srodowisko-naturalne-i-klimat/polityka-klimatyczna-grupy-tauron/</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>https://holding.wpcdn.pl/download/WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf?title=WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf&amp;button=Pobierz</t>
+          <t>https://raport2019.tauron.pl/wp-content/uploads/2020/04/Podpisane_Sprawozdanie-na-temat-informacji-niefinansowych-GT-z-2019-rok_.pdf</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>scope 3 nieraportowany</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr"/>
+          <t>emisje raportowane łącznie</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>3811319574</v>
+      </c>
+      <c r="X31" t="n">
+        <v>14629722000</v>
+      </c>
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2662,13 +2650,13 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="J32" t="n">
         <v>2021</v>
       </c>
       <c r="K32" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -2678,25 +2666,47 @@
         <v>443.9</v>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1783.74</v>
+      </c>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>https://holding.wpcdn.pl/download/ESG%20Strategy_Wirtualna%20Polska%20Holding_2022.pdf</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>https://holding.wpcdn.pl/download/WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf?title=WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf&amp;button=Pobierz</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BNP Paribas</t>
+          <t>Wirtualna Polska</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2706,7 +2716,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2715,71 +2725,43 @@
       <c r="G33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="J33" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="K33" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>6094</v>
+        <v>405.5</v>
       </c>
       <c r="N33" t="n">
-        <v>12890</v>
+        <v>443.9</v>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
-        <v>18984</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>108</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2050272</v>
-      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>https://www.bnpparibas.pl/relacje-inwestorskie/o-banku/strategia-banku</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>https://raportroczny.bnpparibas.pl/2020/</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Scope 3 obejmuje podróże służbowe, tylko, do usunięcia imo</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bank Ochrony Środowiska</t>
+          <t>BNP Paribas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2799,48 +2781,48 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="J34" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K34" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>14</v>
+        <v>6094</v>
       </c>
       <c r="N34" t="n">
-        <v>3040.78</v>
+        <v>12890</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>3054.78</v>
+        <v>18984</v>
       </c>
       <c r="Q34" t="n">
-        <v>108</v>
+        <v>700</v>
       </c>
       <c r="R34" t="n">
-        <v>329916.24</v>
+        <v>13288800</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>https://www.bosbank.pl/__data/assets/pdf_file/0013/40333/Polityka-klimatyczna.pdf</t>
+          <t>https://www.bnpparibas.pl/relacje-inwestorskie/o-banku/strategia-banku</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>https://www.bosbank.pl/__data/assets/pdf_file/0017/40337/RAPORT-ESG-BOS.pdf</t>
+          <t>https://raportroczny.bnpparibas.pl/2020/</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Scope 3 obejmuje głównie podróże służbowe</t>
+          <t>Scope 3 obejmuje podróże służbowe, tylko, do usunięcia imo</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2849,16 +2831,20 @@
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JSW</t>
+          <t>Bank Ochrony Środowiska</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2868,7 +2854,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2877,47 +2863,49 @@
       <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
       <c r="I35" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="J35" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="K35" t="n">
         <v>2030</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>7170000</v>
+        <v>14</v>
       </c>
       <c r="N35" t="n">
-        <v>1050000</v>
+        <v>3040.78</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>8220000</v>
+        <v>3054.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.7</v>
+        <v>700</v>
       </c>
       <c r="R35" t="n">
-        <v>22194000</v>
+        <v>2138346</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://www.jsw.pl/relacje-inwestorskie/strategia</t>
+          <t>https://www.bosbank.pl/__data/assets/pdf_file/0013/40333/Polityka-klimatyczna.pdf</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://www.jsw.pl/raportroczny-2021/zrownowazony-rozwoj-w-jsw/w-trosce-o-klimat</t>
+          <t>https://www.bosbank.pl/__data/assets/pdf_file/0017/40337/RAPORT-ESG-BOS.pdf</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Scope 3 nieraportowany</t>
+          <t>Scope 3 obejmuje głównie podróże służbowe</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2931,22 +2919,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Grupa Kęty</t>
+          <t>JSW</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Intensity</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>S1+S2</t>
@@ -2960,60 +2944,74 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J36" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K36" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>21123</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>7170000</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1050000</v>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>21123</v>
-      </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+        <v>8220000</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>94530000</v>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://grupakety.com/zrownowazony-rozwoj/srodowisko/polityka-srodowiskowa/</t>
+          <t>https://www.jsw.pl/relacje-inwestorskie/strategia</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>https://grupakety.com/wp-content/uploads/2021/11/raport2016pl.pdf</t>
+          <t>https://www.jsw.pl/raportroczny-2021/zrownowazony-rozwoj-w-jsw/w-trosce-o-klimat</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Target: obniżenie o 15% ghg przypadających na jednostkę produktu</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Eurocash</t>
+          <t>Grupa Kęty</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Absolute</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Intensity</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>S1+S2</t>
@@ -3027,45 +3025,39 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="K37" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>37825.8</v>
-      </c>
-      <c r="N37" t="n">
-        <v>106461.65</v>
-      </c>
+        <v>21123</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>144287.45</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>10</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1442874.5</v>
-      </c>
+        <v>21123</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://grupaeurocash.pl/assets/media/strategia-2023-2025-pl.pdf</t>
+          <t>https://grupakety.com/zrownowazony-rozwoj/srodowisko/polityka-srodowiskowa/</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>https://grupaeurocash.pl/assets/media/eurocash-raport-so1-2021-pl.pdf</t>
+          <t>https://grupakety.com/wp-content/uploads/2021/11/raport2016pl.pdf</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Scope 3 nieraportowany</t>
+          <t>Target: obniżenie o 15% ghg przypadających na jednostkę produktu</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -3075,11 +3067,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CitiBank Handlowy</t>
+          <t>Eurocash</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3100,63 +3092,59 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="J38" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K38" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1937</v>
+        <v>37825.8</v>
       </c>
       <c r="N38" t="n">
-        <v>16337</v>
+        <v>106461.65</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>18274</v>
+        <v>144287.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>108</v>
+        <v>10.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1973592</v>
+        <v>1572733.205</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://www.citibank.pl/poland/homepage/polish/press1/files/220217-1_ip.pdf</t>
+          <t>https://grupaeurocash.pl/assets/media/strategia-2023-2025-pl.pdf</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>https://www.citibank.pl/poland/homepage/raport_roczny_2019/files/sprawozdanie_na_temat_informacji_niefinansowych_2019_pl.pdf</t>
+          <t>https://grupaeurocash.pl/assets/media/eurocash-raport-so1-2021-pl.pdf</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Brak celow dla Scope 3</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+          <t>Scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Millenium Bank</t>
+          <t>CitiBank Handlowy</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3177,36 +3165,52 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K39" t="n">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>2246</v>
+        <v>1937</v>
       </c>
       <c r="N39" t="n">
-        <v>21434</v>
+        <v>16337</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>23680</v>
+        <v>18274</v>
       </c>
       <c r="Q39" t="n">
-        <v>108</v>
+        <v>700</v>
       </c>
       <c r="R39" t="n">
-        <v>2557440</v>
+        <v>12791800</v>
       </c>
       <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>https://www.citibank.pl/poland/homepage/polish/press1/files/220217-1_ip.pdf</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://www.citibank.pl/poland/homepage/raport_roczny_2019/files/sprawozdanie_na_temat_informacji_niefinansowych_2019_pl.pdf</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Brak celow dla Scope 3</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -3227,7 +3231,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3236,9 +3240,7 @@
       <c r="G40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
         <v>0.95</v>
       </c>
@@ -3246,19 +3248,25 @@
         <v>2020</v>
       </c>
       <c r="K40" t="n">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>2246</v>
+        <v>2601</v>
       </c>
       <c r="N40" t="n">
-        <v>21434</v>
+        <v>24176</v>
       </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>26777</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>700</v>
+      </c>
+      <c r="R40" t="n">
+        <v>18743900</v>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -3270,11 +3278,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Grenevia/Famur</t>
+          <t>Millenium Bank</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3284,7 +3292,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3293,33 +3301,29 @@
       <c r="G41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
       <c r="I41" t="n">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="J41" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K41" t="n">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1451998</v>
+        <v>2601</v>
       </c>
       <c r="N41" t="n">
-        <v>14236</v>
+        <v>24176</v>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>1466234</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>28</v>
-      </c>
-      <c r="R41" t="n">
-        <v>41054552</v>
-      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -3327,6 +3331,67 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>26</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>S1+S2</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2030</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1451998</v>
+      </c>
+      <c r="N42" t="n">
+        <v>14236</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="R42" t="n">
+        <v>98956132.66</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/clean/input_data_with_estimates.xlsx
+++ b/data/clean/input_data_with_estimates.xlsx
@@ -1664,7 +1664,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="J18" t="n">
         <v>2020</v>

--- a/data/clean/input_data_with_estimates.xlsx
+++ b/data/clean/input_data_with_estimates.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,11 +2625,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Wirtualna Polska</t>
+          <t>Tauron</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2650,52 +2650,28 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="J32" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="K32" t="n">
-        <v>2025</v>
+        <v>2050</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>405.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>443.9</v>
-      </c>
+        <v>18441041.57</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
-        <v>849.4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1783.74</v>
-      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>https://holding.wpcdn.pl/download/ESG%20Strategy_Wirtualna%20Polska%20Holding_2022.pdf</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>https://holding.wpcdn.pl/download/WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf?title=WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf&amp;button=Pobierz</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>scope 3 nieraportowany</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2727,13 +2703,13 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="J33" t="n">
         <v>2021</v>
       </c>
       <c r="K33" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
@@ -2743,25 +2719,47 @@
         <v>443.9</v>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1783.74</v>
+      </c>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>https://holding.wpcdn.pl/download/ESG%20Strategy_Wirtualna%20Polska%20Holding_2022.pdf</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>https://holding.wpcdn.pl/download/WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf?title=WPL_RS_2021_Sprawozdanie_Zarzadu_z_dzialalnosci.pdf&amp;button=Pobierz</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BNP Paribas</t>
+          <t>Wirtualna Polska</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2771,7 +2769,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2780,71 +2778,43 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="J34" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="K34" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>6094</v>
+        <v>405.5</v>
       </c>
       <c r="N34" t="n">
-        <v>12890</v>
+        <v>443.9</v>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>18984</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>700</v>
-      </c>
-      <c r="R34" t="n">
-        <v>13288800</v>
-      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>https://www.bnpparibas.pl/relacje-inwestorskie/o-banku/strategia-banku</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>https://raportroczny.bnpparibas.pl/2020/</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Scope 3 obejmuje podróże służbowe, tylko, do usunięcia imo</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Wybrana</t>
-        </is>
-      </c>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bank Ochrony Środowiska</t>
+          <t>BNP Paribas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2864,48 +2834,48 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="J35" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K35" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>14</v>
+        <v>6094</v>
       </c>
       <c r="N35" t="n">
-        <v>3040.78</v>
+        <v>12890</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>3054.78</v>
+        <v>18984</v>
       </c>
       <c r="Q35" t="n">
         <v>700</v>
       </c>
       <c r="R35" t="n">
-        <v>2138346</v>
+        <v>13288800</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://www.bosbank.pl/__data/assets/pdf_file/0013/40333/Polityka-klimatyczna.pdf</t>
+          <t>https://www.bnpparibas.pl/relacje-inwestorskie/o-banku/strategia-banku</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://www.bosbank.pl/__data/assets/pdf_file/0017/40337/RAPORT-ESG-BOS.pdf</t>
+          <t>https://raportroczny.bnpparibas.pl/2020/</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Scope 3 obejmuje głównie podróże służbowe</t>
+          <t>Scope 3 obejmuje podróże służbowe, tylko, do usunięcia imo</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2914,16 +2884,20 @@
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Wybrana</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JSW</t>
+          <t>Bank Ochrony Środowiska</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2933,7 +2907,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2942,47 +2916,49 @@
       <c r="G36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
       <c r="I36" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="J36" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="K36" t="n">
         <v>2030</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>7170000</v>
+        <v>14</v>
       </c>
       <c r="N36" t="n">
-        <v>1050000</v>
+        <v>3040.78</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>8220000</v>
+        <v>3054.78</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.5</v>
+        <v>700</v>
       </c>
       <c r="R36" t="n">
-        <v>94530000</v>
+        <v>2138346</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://www.jsw.pl/relacje-inwestorskie/strategia</t>
+          <t>https://www.bosbank.pl/__data/assets/pdf_file/0013/40333/Polityka-klimatyczna.pdf</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>https://www.jsw.pl/raportroczny-2021/zrownowazony-rozwoj-w-jsw/w-trosce-o-klimat</t>
+          <t>https://www.bosbank.pl/__data/assets/pdf_file/0017/40337/RAPORT-ESG-BOS.pdf</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Scope 3 nieraportowany</t>
+          <t>Scope 3 obejmuje głównie podróże służbowe</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2996,22 +2972,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Grupa Kęty</t>
+          <t>JSW</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Intensity</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>S1+S2</t>
@@ -3025,60 +2997,74 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K37" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>21123</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>7170000</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1050000</v>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>21123</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+        <v>8220000</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>94530000</v>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://grupakety.com/zrownowazony-rozwoj/srodowisko/polityka-srodowiskowa/</t>
+          <t>https://www.jsw.pl/relacje-inwestorskie/strategia</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>https://grupakety.com/wp-content/uploads/2021/11/raport2016pl.pdf</t>
+          <t>https://www.jsw.pl/raportroczny-2021/zrownowazony-rozwoj-w-jsw/w-trosce-o-klimat</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Target: obniżenie o 15% ghg przypadających na jednostkę produktu</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Eurocash</t>
+          <t>Grupa Kęty</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Absolute</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Intensity</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>S1+S2</t>
@@ -3092,45 +3078,39 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="J38" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="K38" t="n">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>37825.8</v>
-      </c>
-      <c r="N38" t="n">
-        <v>106461.65</v>
-      </c>
+        <v>21123</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>144287.45</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1572733.205</v>
-      </c>
+        <v>21123</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://grupaeurocash.pl/assets/media/strategia-2023-2025-pl.pdf</t>
+          <t>https://grupakety.com/zrownowazony-rozwoj/srodowisko/polityka-srodowiskowa/</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>https://grupaeurocash.pl/assets/media/eurocash-raport-so1-2021-pl.pdf</t>
+          <t>https://grupakety.com/wp-content/uploads/2021/11/raport2016pl.pdf</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Scope 3 nieraportowany</t>
+          <t>Target: obniżenie o 15% ghg przypadających na jednostkę produktu</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -3140,11 +3120,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CitiBank Handlowy</t>
+          <t>Eurocash</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3165,63 +3145,59 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="J39" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K39" t="n">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>1937</v>
+        <v>37825.8</v>
       </c>
       <c r="N39" t="n">
-        <v>16337</v>
+        <v>106461.65</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>18274</v>
+        <v>144287.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>700</v>
+        <v>10.9</v>
       </c>
       <c r="R39" t="n">
-        <v>12791800</v>
+        <v>1572733.205</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>https://www.citibank.pl/poland/homepage/polish/press1/files/220217-1_ip.pdf</t>
+          <t>https://grupaeurocash.pl/assets/media/strategia-2023-2025-pl.pdf</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>https://www.citibank.pl/poland/homepage/raport_roczny_2019/files/sprawozdanie_na_temat_informacji_niefinansowych_2019_pl.pdf</t>
+          <t>https://grupaeurocash.pl/assets/media/eurocash-raport-so1-2021-pl.pdf</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Brak celow dla Scope 3</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Uwzględniane (CO2e)</t>
-        </is>
-      </c>
+          <t>Scope 3 nieraportowany</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Millenium Bank</t>
+          <t>CitiBank Handlowy</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3242,36 +3218,52 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="J40" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K40" t="n">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>2601</v>
+        <v>1937</v>
       </c>
       <c r="N40" t="n">
-        <v>24176</v>
+        <v>16337</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>26777</v>
+        <v>18274</v>
       </c>
       <c r="Q40" t="n">
         <v>700</v>
       </c>
       <c r="R40" t="n">
-        <v>18743900</v>
+        <v>12791800</v>
       </c>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>https://www.citibank.pl/poland/homepage/polish/press1/files/220217-1_ip.pdf</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>https://www.citibank.pl/poland/homepage/raport_roczny_2019/files/sprawozdanie_na_temat_informacji_niefinansowych_2019_pl.pdf</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Brak celow dla Scope 3</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Uwzględniane (CO2e)</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -3292,7 +3284,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S1+S2+S3</t>
+          <t>S1+S2</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3301,9 +3293,7 @@
       <c r="G41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>0.95</v>
       </c>
@@ -3311,7 +3301,7 @@
         <v>2020</v>
       </c>
       <c r="K41" t="n">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -3321,9 +3311,15 @@
         <v>24176</v>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>26777</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>700</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18743900</v>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -3335,11 +3331,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Grenevia/Famur</t>
+          <t>Millenium Bank</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3349,7 +3345,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>S1+S2</t>
+          <t>S1+S2+S3</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3358,33 +3354,29 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
       <c r="I42" t="n">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="J42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K42" t="n">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>1451998</v>
+        <v>2601</v>
       </c>
       <c r="N42" t="n">
-        <v>14236</v>
+        <v>24176</v>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
-        <v>1466234</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="R42" t="n">
-        <v>98956132.66</v>
-      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3392,6 +3384,67 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Grenevia/Famur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>26</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Absolute</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>S1+S2</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2030</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1451998</v>
+      </c>
+      <c r="N43" t="n">
+        <v>14236</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>1466234</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="R43" t="n">
+        <v>98956132.66</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
